--- a/lab10/part1.xlsx
+++ b/lab10/part1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronald\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronald\Documents\GitHub\labs\lab10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">ohmeter resistance </t>
   </si>
@@ -36,6 +36,75 @@
   </si>
   <si>
     <t>Current [A]</t>
+  </si>
+  <si>
+    <t>part 2</t>
+  </si>
+  <si>
+    <t>Ibe</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Theoretical [mA]</t>
+  </si>
+  <si>
+    <t>Measured [mA]</t>
+  </si>
+  <si>
+    <t>time to exec isr</t>
+  </si>
+  <si>
+    <t>avg error</t>
+  </si>
+  <si>
+    <t>2.4us</t>
+  </si>
+  <si>
+    <t>motor controller</t>
+  </si>
+  <si>
+    <t>period measurement</t>
+  </si>
+  <si>
+    <t>3.0us</t>
+  </si>
+  <si>
+    <t>current to run sys at 5V</t>
+  </si>
+  <si>
+    <t>no motor</t>
+  </si>
+  <si>
+    <t>with motor</t>
+  </si>
+  <si>
+    <t>83mA</t>
+  </si>
+  <si>
+    <t>185mA</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>desired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samples </t>
+  </si>
+  <si>
+    <t>rps</t>
+  </si>
+  <si>
+    <t>step up 5 time</t>
+  </si>
+  <si>
+    <t>0.875s</t>
   </si>
 </sst>
 </file>
@@ -349,11 +418,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415724128"/>
-        <c:axId val="415724520"/>
+        <c:axId val="390280048"/>
+        <c:axId val="390279264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="415724128"/>
+        <c:axId val="390280048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -466,12 +535,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415724520"/>
+        <c:crossAx val="390279264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="415724520"/>
+        <c:axId val="390279264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,7 +681,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415724128"/>
+        <c:crossAx val="390280048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1237,7 +1306,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56B05F93-2BE1-4F7B-A4F5-5980343EC945}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B05F93-2BE1-4F7B-A4F5-5980343EC945}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1555,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:C13"/>
+  <dimension ref="A4:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,6 +1722,190 @@
         <v>0.105</v>
       </c>
     </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>15.04</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>50</v>
+      </c>
+      <c r="K21">
+        <f>ABS(J21-$O$20)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <f>SUM(K21:K28) / 8</f>
+        <v>0.22500000000000053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <f>100.9-15.04</f>
+        <v>85.860000000000014</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22:K28" si="0">ABS(J22-$O$20)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>49.8</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>49.5</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>50.4</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="N25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>50</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>50.1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <v>50.6</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/lab10/part1.xlsx
+++ b/lab10/part1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronald\Documents\GitHub\labs\lab10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronny\Desktop\EE\445L\labs\lab10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,9 +56,6 @@
     <t>time to exec isr</t>
   </si>
   <si>
-    <t>avg error</t>
-  </si>
-  <si>
     <t>2.4us</t>
   </si>
   <si>
@@ -86,32 +83,35 @@
     <t>185mA</t>
   </si>
   <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>desired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samples </t>
-  </si>
-  <si>
-    <t>rps</t>
-  </si>
-  <si>
-    <t>step up 5 time</t>
-  </si>
-  <si>
     <t>0.875s</t>
+  </si>
+  <si>
+    <t>Motor Sample</t>
+  </si>
+  <si>
+    <t>Speed (rps)</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Average Step-up Time</t>
+  </si>
+  <si>
+    <t>Desired Speed</t>
+  </si>
+  <si>
+    <t>Average Error</t>
+  </si>
+  <si>
+    <t>Samples</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +129,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -153,10 +160,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,7 +189,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -224,7 +238,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -404,7 +417,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B8DC-4861-A3B4-84150C4C4C27}"/>
             </c:ext>
@@ -468,7 +481,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -614,7 +626,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1306,7 +1317,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B05F93-2BE1-4F7B-A4F5-5980343EC945}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B05F93-2BE1-4F7B-A4F5-5980343EC945}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1624,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:O28"/>
+  <dimension ref="A4:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,7 +1733,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1735,23 +1746,8 @@
       <c r="F20" t="s">
         <v>9</v>
       </c>
-      <c r="I20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1759,30 +1755,13 @@
         <v>15.04</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>50</v>
-      </c>
-      <c r="K21">
-        <f>ABS(J21-$O$20)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
         <v>10</v>
       </c>
-      <c r="O21">
-        <f>SUM(K21:K28) / 8</f>
-        <v>0.22500000000000053</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1791,118 +1770,162 @@
         <v>85.860000000000014</v>
       </c>
       <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
         <v>13</v>
       </c>
-      <c r="G22" t="s">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
         <v>14</v>
       </c>
-      <c r="I22">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>0</v>
+      </c>
+      <c r="B33" s="4">
+        <v>50</v>
+      </c>
+      <c r="C33" s="4">
+        <f>ABS(B33-$F$32)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="5">
+        <f>SUM(C33:C40) / 8</f>
+        <v>0.22500000000000053</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>1</v>
       </c>
-      <c r="J22">
+      <c r="B34" s="4">
         <v>50</v>
       </c>
-      <c r="K22">
-        <f t="shared" ref="K22:K28" si="0">ABS(J22-$O$20)</f>
+      <c r="C34" s="4">
+        <f>ABS(B34-$F$32)</f>
         <v>0</v>
       </c>
-      <c r="N22" t="s">
+      <c r="E34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4">
+        <v>49.8</v>
+      </c>
+      <c r="C35" s="4">
+        <f>ABS(B35-$F$32)</f>
+        <v>0.20000000000000284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4">
+        <v>49.5</v>
+      </c>
+      <c r="C36" s="4">
+        <f>ABS(B36-$F$32)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E36" t="s">
         <v>23</v>
       </c>
-      <c r="O22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
-        <v>49.8</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="0"/>
-        <v>0.20000000000000284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-      <c r="J24">
-        <v>49.5</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25">
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>4</v>
       </c>
-      <c r="J25">
+      <c r="B37" s="4">
         <v>50.4</v>
       </c>
-      <c r="K25">
-        <f t="shared" si="0"/>
+      <c r="C37" s="4">
+        <f>ABS(B37-$F$32)</f>
         <v>0.39999999999999858</v>
       </c>
-      <c r="N25" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26">
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>5</v>
       </c>
-      <c r="J26">
+      <c r="B38" s="4">
         <v>50</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="0"/>
+      <c r="C38" s="4">
+        <f>ABS(B38-$F$32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I27">
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>6</v>
       </c>
-      <c r="J27">
+      <c r="B39" s="4">
         <v>50.1</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="0"/>
+      <c r="C39" s="4">
+        <f>ABS(B39-$F$32)</f>
         <v>0.10000000000000142</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I28">
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>7</v>
       </c>
-      <c r="J28">
+      <c r="B40" s="4">
         <v>50.6</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="0"/>
+      <c r="C40" s="4">
+        <f>ABS(B40-$F$32)</f>
         <v>0.60000000000000142</v>
       </c>
     </row>
